--- a/AISD-LABA-2/grafs.xlsx
+++ b/AISD-LABA-2/grafs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marishka\Desktop\code\github\AISD-LABA-4-SEM\AISD-LABA-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6ED1C2A-98E6-4717-9C41-ACE2C735E492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C08680-A558-4508-AA5C-590D65CD8FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50" yWindow="1050" windowWidth="19200" windowHeight="10060" xr2:uid="{EDAD1C9C-77B4-4A28-B7B3-6BC6D7D15400}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{EDAD1C9C-77B4-4A28-B7B3-6BC6D7D15400}"/>
   </bookViews>
   <sheets>
     <sheet name="vstavki" sheetId="1" r:id="rId1"/>
@@ -27,21 +27,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
-  <si>
-    <t>comprassion-r</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>copy-r</t>
   </si>
   <si>
-    <t>copmrassion-s</t>
-  </si>
-  <si>
     <t>copy-s</t>
-  </si>
-  <si>
-    <t>comprassion-rev</t>
   </si>
   <si>
     <t>copy-rev</t>
@@ -53,61 +44,13 @@
     <t>time</t>
   </si>
   <si>
-    <t>190.24</t>
+    <t>comprasion-r</t>
   </si>
   <si>
-    <t>419.29</t>
+    <t>copmrasion-s</t>
   </si>
   <si>
-    <t>671.27</t>
-  </si>
-  <si>
-    <t>946.14</t>
-  </si>
-  <si>
-    <t>1233.75</t>
-  </si>
-  <si>
-    <t>1521.13</t>
-  </si>
-  <si>
-    <t>1834.71</t>
-  </si>
-  <si>
-    <t>2136.19</t>
-  </si>
-  <si>
-    <t>2452.13</t>
-  </si>
-  <si>
-    <t>2808.9</t>
-  </si>
-  <si>
-    <t>1381.36</t>
-  </si>
-  <si>
-    <t>3522.79</t>
-  </si>
-  <si>
-    <t>10067.7</t>
-  </si>
-  <si>
-    <t>13175.5</t>
-  </si>
-  <si>
-    <t>17353.8</t>
-  </si>
-  <si>
-    <t>22047.9</t>
-  </si>
-  <si>
-    <t>27273.4</t>
-  </si>
-  <si>
-    <t>33755.4</t>
-  </si>
-  <si>
-    <t>6418.91</t>
+    <t>comprasion-rev</t>
   </si>
 </sst>
 </file>
@@ -199,7 +142,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Comprassion</a:t>
+              <a:t>Comprasion</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -243,6 +186,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>random</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -362,7 +308,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>ряд2</c:v>
+            <c:v>sorted</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -743,6 +689,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -822,7 +799,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Copies</a:t>
+              <a:t>Copy</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -865,6 +842,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>random</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1105,7 +1085,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>rev</c:v>
+            <c:v>reversed</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1365,6 +1345,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1444,7 +1455,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>times</a:t>
+              <a:t>Time</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -1807,6 +1818,1131 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Comprasion</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'fast sort'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'fast sort'!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32380</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42824</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53721</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64230</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88741</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>101868</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>355033</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1023481</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3317685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFEC-419E-9CFD-B5BC32C170CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1334989503"/>
+        <c:axId val="1334997407"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1334989503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1334997407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1334997407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1334989503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Copy</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'fast sort'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'fast sort'!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21050</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39207</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49270</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70073</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81581</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>93759</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>332032</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>975480</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3219684</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-872A-4E29-B082-C94CD3621B91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1331733871"/>
+        <c:axId val="1331734703"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1331733871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1331734703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1331734703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1331733871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'fast sort'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'fast sort'!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>190.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>419.29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>671.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>946.14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1233.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1521.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1834.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2136.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2452.13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2808.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32F0-4903-9AA3-BECB30AFCA0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1340263951"/>
+        <c:axId val="1340264367"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1340263951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1340264367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1340264367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1340263951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Comprassion</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
@@ -1865,7 +3001,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>vstavki!$A$2:$A$14</c:f>
+              <c:f>'merge sort'!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -1913,48 +3049,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>vstavki!$B$2:$B$14</c:f>
+              <c:f>'merge sort'!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>250147</c:v>
+                  <c:v>19952</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>997205</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2251679</c:v>
+                  <c:v>69808</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3998599</c:v>
+                  <c:v>95808</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6249590</c:v>
+                  <c:v>123616</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8997045</c:v>
+                  <c:v>151616</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12245522</c:v>
+                  <c:v>179616</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15994672</c:v>
+                  <c:v>207616</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20228449</c:v>
+                  <c:v>237232</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24994203</c:v>
+                  <c:v>267232</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>156219153</c:v>
+                  <c:v>734464</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>624494244</c:v>
+                  <c:v>1568928</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2497980528</c:v>
+                  <c:v>3337856</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1962,249 +3098,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E1B8-471F-96A4-5FF90F459B24}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>ряд2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>vstavki!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>vstavki!$D$2:$D$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E1B8-471F-96A4-5FF90F459B24}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>fast sort</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>vstavki!$A$2:$A$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>vstavki!$F$2:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>499264</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1998012</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4496266</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7993955</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12491385</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17987996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24484288</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>31980000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40475181</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>49970013</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>312331162</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1249349232</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4997449106</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E1B8-471F-96A4-5FF90F459B24}"/>
+              <c16:uniqueId val="{00000000-83F5-4483-9E52-8F06EAD28F7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2216,11 +3110,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="648859216"/>
-        <c:axId val="648870864"/>
+        <c:axId val="1334994079"/>
+        <c:axId val="1334987007"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="648859216"/>
+        <c:axId val="1334994079"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,12 +3171,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648870864"/>
+        <c:crossAx val="1334987007"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="648870864"/>
+        <c:axId val="1334987007"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2339,7 +3233,751 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648859216"/>
+        <c:crossAx val="1334994079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Copy</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'merge sort'!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'merge sort'!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>9976</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47904</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61808</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75808</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103808</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>118616</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>133616</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>367232</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>784464</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1668928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B6A1-43BC-AB55-47BDD47F5655}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1444139327"/>
+        <c:axId val="1444149727"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1444139327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1444149727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1444149727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1444139327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'merge sort'!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'merge sort'!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1381.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3522.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6418.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10067.700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13175.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17353.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22047.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27273.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33755.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40911</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-382D-46BD-8A2E-7C58A90FD56C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1430583743"/>
+        <c:axId val="1430568351"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1430583743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1430568351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1430568351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1430583743"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2555,6 +4193,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4104,6 +5942,2586 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4695,16 +9113,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4729,6 +9147,89 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB6E0243-79FD-F6B6-4C49-5617FCD0B639}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9175750" y="628650"/>
+          <a:ext cx="3511550" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400"/>
+            <a:t>Среднее</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+            <a:t> время работы данной сортировки - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="30000"/>
+            <a:t>^2</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4737,28 +9238,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
+      <xdr:colOff>41275</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>882650</xdr:colOff>
+      <xdr:colOff>511175</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
+        <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2AAFD1E-4362-438C-B568-84F3DFEDFD13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A2A053-A1D2-F957-D959-73F0239C1D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4770,6 +9269,359 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>758825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391FF7F6-5865-F39B-259C-1A48B7DCCDB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53EADDB3-F753-5C3F-B958-5343252A78D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B91F93DC-91CE-44C6-A7EF-D521FE4FC8D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9817100" y="552450"/>
+          <a:ext cx="3511550" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400"/>
+            <a:t>Среднее</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+            <a:t> время работы данной сортировки - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0"/>
+            <a:t>n</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C15E7FD2-9AB0-EEE1-E01F-6DC94DBD31E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{107593D7-2CE4-74FD-AD8F-6251531998F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD8FEFF-7AC9-1AE0-1560-54346610D4DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D66F691-82FF-1724-B4E9-1B07491F20FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8832850" y="635000"/>
+          <a:ext cx="3854450" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400"/>
+            <a:t>В данной</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400" baseline="0"/>
+            <a:t> сортировки в любом случае фиксированное количесвто равнений и копирований, поэтому достаточно построить 1 график для избежания ненужного нагромождения.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400"/>
+            <a:t>Среднее время выполнения - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>n*log(n)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5075,7 +9927,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" activeCellId="1" sqref="A2:A11 H2:H11"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5087,28 +9939,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -5451,7 +10303,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5462,28 +10314,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -5496,8 +10348,8 @@
       <c r="C2">
         <v>5600</v>
       </c>
-      <c r="H2" t="s">
-        <v>8</v>
+      <c r="H2">
+        <v>190.24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -5510,8 +10362,8 @@
       <c r="C3">
         <v>12862</v>
       </c>
-      <c r="H3" t="s">
-        <v>9</v>
+      <c r="H3">
+        <v>419.29</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -5524,8 +10376,8 @@
       <c r="C4">
         <v>21050</v>
       </c>
-      <c r="H4" t="s">
-        <v>10</v>
+      <c r="H4">
+        <v>671.27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -5538,8 +10390,8 @@
       <c r="C5">
         <v>29556</v>
       </c>
-      <c r="H5" t="s">
-        <v>11</v>
+      <c r="H5">
+        <v>946.14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -5552,8 +10404,8 @@
       <c r="C6">
         <v>39207</v>
       </c>
-      <c r="H6" t="s">
-        <v>12</v>
+      <c r="H6">
+        <v>1233.75</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -5566,8 +10418,8 @@
       <c r="C7">
         <v>49270</v>
       </c>
-      <c r="H7" t="s">
-        <v>13</v>
+      <c r="H7">
+        <v>1521.13</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -5580,8 +10432,8 @@
       <c r="C8">
         <v>58903</v>
       </c>
-      <c r="H8" t="s">
-        <v>14</v>
+      <c r="H8">
+        <v>1834.71</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -5594,8 +10446,8 @@
       <c r="C9">
         <v>70073</v>
       </c>
-      <c r="H9" t="s">
-        <v>15</v>
+      <c r="H9">
+        <v>2136.19</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -5608,8 +10460,8 @@
       <c r="C10">
         <v>81581</v>
       </c>
-      <c r="H10" t="s">
-        <v>16</v>
+      <c r="H10">
+        <v>2452.13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -5622,8 +10474,8 @@
       <c r="C11">
         <v>93759</v>
       </c>
-      <c r="H11" t="s">
-        <v>17</v>
+      <c r="H11">
+        <v>2808.9</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -5670,7 +10522,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G14"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5680,28 +10532,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -5726,8 +10578,8 @@
       <c r="G2">
         <v>9976</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
+      <c r="H2">
+        <v>1381.36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -5752,8 +10604,8 @@
       <c r="G3">
         <v>21952</v>
       </c>
-      <c r="H3" t="s">
-        <v>19</v>
+      <c r="H3">
+        <v>3522.79</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -5778,8 +10630,8 @@
       <c r="G4">
         <v>34904</v>
       </c>
-      <c r="H4" t="s">
-        <v>26</v>
+      <c r="H4">
+        <v>6418.91</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -5804,8 +10656,8 @@
       <c r="G5">
         <v>47904</v>
       </c>
-      <c r="H5" t="s">
-        <v>20</v>
+      <c r="H5">
+        <v>10067.700000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -5830,8 +10682,8 @@
       <c r="G6">
         <v>61808</v>
       </c>
-      <c r="H6" t="s">
-        <v>21</v>
+      <c r="H6">
+        <v>13175.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -5856,8 +10708,8 @@
       <c r="G7">
         <v>75808</v>
       </c>
-      <c r="H7" t="s">
-        <v>22</v>
+      <c r="H7">
+        <v>17353.8</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -5882,8 +10734,8 @@
       <c r="G8">
         <v>58903</v>
       </c>
-      <c r="H8" t="s">
-        <v>23</v>
+      <c r="H8">
+        <v>22047.9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -5908,8 +10760,8 @@
       <c r="G9">
         <v>103808</v>
       </c>
-      <c r="H9" t="s">
-        <v>24</v>
+      <c r="H9">
+        <v>27273.4</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -5934,8 +10786,8 @@
       <c r="G10">
         <v>118616</v>
       </c>
-      <c r="H10" t="s">
-        <v>25</v>
+      <c r="H10">
+        <v>33755.4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -6035,5 +10887,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>